--- a/documents/ETAT_HSE.xlsx
+++ b/documents/ETAT_HSE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lyceesiledefrance-my.sharepoint.com/personal/zahardin_boukortt_monlycee_net/Documents/HSE 2025 2026/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\SITE WEB\AED-main\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1044" documentId="8_{C7C41947-D9A9-4C1E-9377-FFBE0FA04BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FDB3B6D-3BEC-4A5E-BF10-75D3F6C78E9D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6FBF30-C12F-4607-8808-D1BEBB346ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="3" state="hidden" r:id="rId1"/>
@@ -3140,7 +3140,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3489,6 +3489,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7253,7 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA4F6A4-E434-46BE-9056-265441F59523}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -7367,6 +7370,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7378,8 +7382,8 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A4" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7519,7 +7523,7 @@
       <c r="C8" s="58" t="s">
         <v>739</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="107">
         <f>SUM(E15:E25)</f>
         <v>0</v>
       </c>
@@ -7755,7 +7759,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="49">
         <f ca="1">TODAY()</f>
-        <v>46031</v>
+        <v>46052</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="6"/>
@@ -7818,7 +7822,7 @@
       <c r="F34" s="25"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" deleteRows="0" sort="0" pivotTables="0"/>
+  <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" pivotTables="0"/>
   <protectedRanges>
     <protectedRange sqref="D28" name="date"/>
     <protectedRange sqref="A15:G25" name="données"/>
